--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>AMIRA ELSAYED ISMAIL ABDELHAMEED ELWAKEEL</x:t>
   </x:si>
   <x:si>
+    <x:t>1230012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد احمد عبدالجليل ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohammed Ahmed Abd al-Jaleel</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220216</x:t>
   </x:si>
   <x:si>
@@ -69,6 +78,15 @@
     <x:t>Adham Adel Said Muhamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>الحسين محمد محمود عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230344</x:t>
   </x:si>
   <x:si>
@@ -141,6 +159,15 @@
     <x:t>Rebal Sherif abd aldayem mostafa</x:t>
   </x:si>
   <x:si>
+    <x:t>1220124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ريتاج محمد عثمان عبد الخالق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retag Mohamed Othman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230046</x:t>
   </x:si>
   <x:si>
@@ -168,6 +195,15 @@
     <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230053</x:t>
   </x:si>
   <x:si>
@@ -240,6 +276,24 @@
     <x:t>Mohamed Ahmed Abdelhafiz Abdel hameed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد هاني فوزي محمد الخطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نورهان أيمن منصور أحمد ندا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230126</x:t>
   </x:si>
   <x:si>
@@ -258,6 +312,15 @@
     <x:t>Waleed hisham abdelhamid hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1230326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسي رزق لمعي رزق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassa rizk lamey rizk</x:t>
+  </x:si>
+  <x:si>
     <x:t>1170221</x:t>
   </x:si>
   <x:si>
@@ -274,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف وائل محمود مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Wael Mahmoud Sayed Morsy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -389,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -812,7 +884,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45921.5835651273</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -844,7 +916,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4200732986</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -876,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.6840993056</x:v>
+        <x:v>45907.4200732986</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -908,7 +980,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.421621956</x:v>
+        <x:v>45909.6840993056</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4712239583</x:v>
+        <x:v>45909.4154279745</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.3425466782</x:v>
+        <x:v>45907.421621956</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9442097222</x:v>
+        <x:v>45907.4712239583</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.415459294</x:v>
+        <x:v>45912.3425466782</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4242160532</x:v>
+        <x:v>45914.9442097222</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45909.415459294</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4235224884</x:v>
+        <x:v>45907.4242160532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4184989583</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45907.4235224884</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45921.5821270486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.419656169</x:v>
+        <x:v>45907.4184989583</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4156276273</x:v>
+        <x:v>45906.4150041667</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4204321412</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4161332176</x:v>
+        <x:v>45921.5879556366</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4207461806</x:v>
+        <x:v>45907.419656169</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4744706019</x:v>
+        <x:v>45907.4156276273</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45907.4204321412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45909.4161332176</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4152556366</x:v>
+        <x:v>45907.4207461806</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45909.4744706019</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6063677083</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1630,6 +1702,262 @@
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
     </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45921.5815980324</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45921.5825930208</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.4152556366</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.4220834491</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45921.4826945255</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45918.4476885764</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6063677083</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45921.5830994213</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1642,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Marketing (GENS208) Location : [20105]20105-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,15 +337,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف وائل محمود مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Wael Mahmoud Sayed Morsy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45921.5830994213</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Irinie Amgad Nessim Guerguis</x:t>
   </x:si>
   <x:si>
+    <x:t>4220108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بسملة خالد عبدالفتاح محمد جلال</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Basmalla Khaled Abdel Fattah Mohamed Galal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200138</x:t>
   </x:si>
   <x:si>
@@ -283,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان سامح محمد عبدالفتاح عبدالوهاب الخولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Sameh Mohamed Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1230274</x:t>
@@ -452,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1099,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3425466782</x:v>
+        <x:v>45922.5216257755</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9442097222</x:v>
+        <x:v>45912.3425466782</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.415459294</x:v>
+        <x:v>45914.9442097222</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4242160532</x:v>
+        <x:v>45909.415459294</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4242160532</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4235224884</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.5821270486</x:v>
+        <x:v>45907.4235224884</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4184989583</x:v>
+        <x:v>45921.5821270486</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45907.4184989583</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45906.4150041667</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.5879556366</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.419656169</x:v>
+        <x:v>45921.5879556366</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4156276273</x:v>
+        <x:v>45907.419656169</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4204321412</x:v>
+        <x:v>45907.4156276273</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4161332176</x:v>
+        <x:v>45907.4204321412</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4207461806</x:v>
+        <x:v>45909.4161332176</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4744706019</x:v>
+        <x:v>45907.4207461806</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45909.4744706019</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45921.5815980324</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.5825930208</x:v>
+        <x:v>45921.5815980324</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4152556366</x:v>
+        <x:v>45922.5225679398</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45921.5825930208</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.4826945255</x:v>
+        <x:v>45907.4152556366</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6063677083</x:v>
+        <x:v>45921.4826945255</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1934,70 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45918.4476885764</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.6063677083</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -355,6 +355,12 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -470,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +776,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1998,6 +2004,36 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s"/>
+      <x:c r="E38" s="3">
+        <x:v>45926.4164947106</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>AHMED WALAA ABDELKHALEK ABDELRAHMAN</x:t>
   </x:si>
   <x:si>
-    <x:t>1230156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادم عمرو محرم عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adam Amr Moharram</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230158</x:t>
   </x:si>
   <x:si>
@@ -87,15 +78,6 @@
     <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
   </x:si>
   <x:si>
-    <x:t>1230344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الفريد هانى ميلاد فرويز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alfred hany</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230020</x:t>
   </x:si>
   <x:si>
@@ -231,15 +213,6 @@
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
   </x:si>
   <x:si>
-    <x:t>1230205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على أسامه محمد ممدوح نافع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Osama Mohamed Mamdouh Nafeh</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230073</x:t>
   </x:si>
   <x:si>
@@ -249,15 +222,6 @@
     <x:t>Omar Ahmed Mohammed Hamdy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر تامر يحيي نشأت مصطفى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tamer Yahia Nashaat Mostafa Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230213</x:t>
   </x:si>
   <x:si>
@@ -276,15 +240,6 @@
     <x:t>Omar Nader Ibrahim Elebiary</x:t>
   </x:si>
   <x:si>
-    <x:t>1230094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد عبدالحفيظ عبدالحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ahmed Abdelhafiz Abdel hameed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220197</x:t>
   </x:si>
   <x:si>
@@ -301,24 +256,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Sameh Mohamed Abdelfattah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نورهان أيمن منصور أحمد ندا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنا احمد سعيد عبده ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hana Ahmed Said Abdo Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230280</x:t>
@@ -476,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -776,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -963,7 +900,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4200732986</x:v>
+        <x:v>45909.6840993056</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -995,7 +932,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.6840993056</x:v>
+        <x:v>45909.4154279745</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1027,7 +964,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4154279745</x:v>
+        <x:v>45907.4712239583</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1059,7 +996,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.421621956</x:v>
+        <x:v>45922.5216257755</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1091,7 +1028,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4712239583</x:v>
+        <x:v>45912.3425466782</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1123,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45922.5216257755</x:v>
+        <x:v>45914.9442097222</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1155,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.3425466782</x:v>
+        <x:v>45909.415459294</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1187,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.9442097222</x:v>
+        <x:v>45907.4242160532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1219,7 +1156,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.415459294</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1251,7 +1188,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4242160532</x:v>
+        <x:v>45907.4235224884</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1283,7 +1220,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45921.5821270486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1315,7 +1252,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4235224884</x:v>
+        <x:v>45907.4184989583</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1347,7 +1284,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.5821270486</x:v>
+        <x:v>45906.4150041667</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1379,7 +1316,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4184989583</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1411,7 +1348,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45921.5879556366</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1443,7 +1380,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45907.419656169</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1475,7 +1412,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.5879556366</x:v>
+        <x:v>45907.4156276273</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1507,7 +1444,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.419656169</x:v>
+        <x:v>45909.4161332176</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1539,7 +1476,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4156276273</x:v>
+        <x:v>45909.4744706019</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1571,7 +1508,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4204321412</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1603,7 +1540,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4161332176</x:v>
+        <x:v>45921.5815980324</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1635,7 +1572,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4207461806</x:v>
+        <x:v>45922.5225679398</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1667,7 +1604,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4744706019</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1699,7 +1636,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45921.4826945255</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1731,7 +1668,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1763,7 +1700,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.5815980324</x:v>
+        <x:v>45907.6063677083</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1791,11 +1728,9 @@
       <x:c r="C31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45922.5225679398</x:v>
+        <x:v>45926.4164947106</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1813,228 +1748,6 @@
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
     </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45921.5825930208</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.4152556366</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.4220834491</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45921.4826945255</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45918.4476885764</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.6063677083</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s"/>
-      <x:c r="E38" s="3">
-        <x:v>45926.4164947106</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2047,9 +1760,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Marketing (GENS208) Location : [20105]20105-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,22 +33,13 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1230145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أميرة السيد إسماعيل عبدالحميد الوكيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMIRA ELSAYED ISMAIL ABDELHAMEED ELWAKEEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد احمد عبدالجليل ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohammed Ahmed Abd al-Jaleel</x:t>
+    <x:t>1230149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم هشام ابراهيم عبد الدايم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hesham Ibrahim Abdel Dayem</x:t>
   </x:si>
   <x:si>
     <x:t>1220216</x:t>
@@ -168,15 +159,6 @@
     <x:t>Seif Eldein Tarek Farouk Abd El Aziz Marzouk</x:t>
   </x:si>
   <x:si>
-    <x:t>1210246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>طارق وليد فتحي محمد عارف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220062</x:t>
   </x:si>
   <x:si>
@@ -186,15 +168,6 @@
     <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230053</x:t>
   </x:si>
   <x:si>
@@ -238,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Nader Ibrahim Elebiary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كلارا هانى فوزى سوارس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clara Hany Fawzy Swares</x:t>
   </x:si>
   <x:si>
     <x:t>1220197</x:t>
@@ -413,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -804,7 +786,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4223105324</x:v>
+        <x:v>45927.4338100347</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -836,7 +818,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45921.5835651273</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -868,7 +850,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45909.6840993056</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -900,7 +882,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.6840993056</x:v>
+        <x:v>45909.4154279745</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -932,7 +914,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4154279745</x:v>
+        <x:v>45907.4712239583</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -964,7 +946,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4712239583</x:v>
+        <x:v>45922.5216257755</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -996,7 +978,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45922.5216257755</x:v>
+        <x:v>45912.3425466782</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1028,7 +1010,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3425466782</x:v>
+        <x:v>45914.9442097222</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1060,7 +1042,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.9442097222</x:v>
+        <x:v>45909.415459294</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1092,7 +1074,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.415459294</x:v>
+        <x:v>45907.4242160532</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1124,7 +1106,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4242160532</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1156,7 +1138,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4235224884</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1188,7 +1170,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4235224884</x:v>
+        <x:v>45921.5821270486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1220,7 +1202,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.5821270486</x:v>
+        <x:v>45907.4184989583</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1252,7 +1234,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4184989583</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1284,7 +1266,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45907.419656169</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1316,7 +1298,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45907.4156276273</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1348,7 +1330,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.5879556366</x:v>
+        <x:v>45909.4161332176</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1380,7 +1362,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.419656169</x:v>
+        <x:v>45909.4744706019</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1412,7 +1394,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4156276273</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1444,7 +1426,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4161332176</x:v>
+        <x:v>45927.4385079861</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1476,7 +1458,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4744706019</x:v>
+        <x:v>45921.5815980324</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1508,7 +1490,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45922.5225679398</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1540,7 +1522,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.5815980324</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1572,7 +1554,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.5225679398</x:v>
+        <x:v>45921.4826945255</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1604,7 +1586,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1636,7 +1618,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.4826945255</x:v>
+        <x:v>45927.63393125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1664,11 +1646,9 @@
       <x:c r="C29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45926.4164947106</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1685,68 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6063677083</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s"/>
-      <x:c r="E31" s="3">
-        <x:v>45926.4164947106</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1230149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم هشام ابراهيم عبد الدايم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Hesham Ibrahim Abdel Dayem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220216</x:t>
   </x:si>
   <x:si>
@@ -69,6 +60,15 @@
     <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
   </x:si>
   <x:si>
+    <x:t>1220036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اندرو نادر لبيب صبحي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Nader Labib Sobhy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230020</x:t>
   </x:si>
   <x:si>
@@ -78,6 +78,15 @@
     <x:t>Irinie Amgad Nessim Guerguis</x:t>
   </x:si>
   <x:si>
+    <x:t>1230022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل احمد محمد عبد العظيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basel ahmed mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220108</x:t>
   </x:si>
   <x:si>
@@ -150,15 +159,6 @@
     <x:t>Retag Mohamed Othman</x:t>
   </x:si>
   <x:si>
-    <x:t>1230046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف الدين طارق فاروق عبدالعزيز مرزوق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seif Eldein Tarek Farouk Abd El Aziz Marzouk</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220062</x:t>
   </x:si>
   <x:si>
@@ -238,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Sameh Mohamed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230280</x:t>
@@ -395,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -786,7 +795,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.4338100347</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -818,7 +827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45909.6840993056</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -850,7 +859,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.6840993056</x:v>
+        <x:v>45909.4154279745</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -882,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4154279745</x:v>
+        <x:v>45928.6121133102</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -946,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45922.5216257755</x:v>
+        <x:v>45928.5241342593</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -978,7 +987,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.3425466782</x:v>
+        <x:v>45922.5216257755</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1010,7 +1019,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9442097222</x:v>
+        <x:v>45912.3425466782</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1042,7 +1051,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.415459294</x:v>
+        <x:v>45914.9442097222</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1074,7 +1083,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4242160532</x:v>
+        <x:v>45909.415459294</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1106,7 +1115,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4242160532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1138,7 +1147,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4235224884</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1170,7 +1179,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.5821270486</x:v>
+        <x:v>45907.4235224884</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1202,7 +1211,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4184989583</x:v>
+        <x:v>45921.5821270486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1522,7 +1531,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1554,7 +1563,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.4826945255</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1586,7 +1595,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45921.4826945255</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1618,7 +1627,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.63393125</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1646,9 +1655,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45926.4164947106</x:v>
+        <x:v>45928.3948722222</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1676,36 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s"/>
+      <x:c r="E30" s="3">
+        <x:v>45926.4164947106</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
   </x:si>
   <x:si>
-    <x:t>1220036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اندرو نادر لبيب صبحي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Nader Labib Sobhy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230020</x:t>
   </x:si>
   <x:si>
@@ -96,15 +87,6 @@
     <x:t xml:space="preserve"> Basmalla Khaled Abdel Fattah Mohamed Galal</x:t>
   </x:si>
   <x:si>
-    <x:t>1200138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جومانة احمد محمود محمد عبدالرحمن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>joumana ahmed mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220234</x:t>
   </x:si>
   <x:si>
@@ -159,6 +141,21 @@
     <x:t>Retag Mohamed Othman</x:t>
   </x:si>
   <x:si>
+    <x:t>1210228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد حازم احمد شفيق كامل حسن عبدالمنعم كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Hazem Ahmed Shafik Kamil Hasan Abdel-Monem Kamil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زينة شادي عبداللطيف الشاذلي</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220062</x:t>
   </x:si>
   <x:si>
@@ -168,15 +165,6 @@
     <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220126</x:t>
   </x:si>
   <x:si>
@@ -186,15 +174,6 @@
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
   </x:si>
   <x:si>
-    <x:t>1230073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد حمدى السيد عطيه مندور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Mohammed Hamdy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230213</x:t>
   </x:si>
   <x:si>
@@ -283,12 +262,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -404,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -712,7 +685,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.300625000000004" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="35.540625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="59.530625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -795,7 +768,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45928.8568324074</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -891,7 +864,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.6121133102</x:v>
+        <x:v>45907.4712239583</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +896,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4712239583</x:v>
+        <x:v>45928.5241342593</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +928,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45928.5241342593</x:v>
+        <x:v>45922.5216257755</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -987,7 +960,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45922.5216257755</x:v>
+        <x:v>45914.9442097222</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1019,7 +992,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3425466782</x:v>
+        <x:v>45909.415459294</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1051,7 +1024,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.9442097222</x:v>
+        <x:v>45907.4242160532</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1083,7 +1056,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.415459294</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1115,7 +1088,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4242160532</x:v>
+        <x:v>45907.4235224884</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1147,7 +1120,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45921.5821270486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1179,7 +1152,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4235224884</x:v>
+        <x:v>45929.1893975694</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1207,11 +1180,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45921.5821270486</x:v>
+        <x:v>45928.7083603819</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1234,13 +1205,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.4158237616</x:v>
@@ -1266,16 +1237,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.419656169</x:v>
+        <x:v>45907.4156276273</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1298,16 +1269,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4156276273</x:v>
+        <x:v>45909.4744706019</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1330,16 +1301,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4161332176</x:v>
+        <x:v>45907.4200439468</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1362,16 +1333,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4744706019</x:v>
+        <x:v>45927.4385079861</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1394,16 +1365,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45921.5815980324</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1426,16 +1397,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4385079861</x:v>
+        <x:v>45922.5225679398</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1458,16 +1429,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.5815980324</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1490,16 +1461,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.5225679398</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1522,16 +1493,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.5785140856</x:v>
+        <x:v>45921.4826945255</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1554,16 +1525,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1586,16 +1557,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.4826945255</x:v>
+        <x:v>45928.3948722222</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,100 +1583,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45918.4476885764</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45928.3948722222</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s"/>
-      <x:c r="E30" s="3">
-        <x:v>45926.4164947106</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Basel ahmed mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>4220108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بسملة خالد عبدالفتاح محمد جلال</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Basmalla Khaled Abdel Fattah Mohamed Galal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220234</x:t>
   </x:si>
   <x:si>
@@ -183,15 +174,6 @@
     <x:t>omar muhammad satea ibrahim saeed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر نادر ابراهيم الابياري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Nader Ibrahim Elebiary</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230082</x:t>
   </x:si>
   <x:si>
@@ -235,15 +217,6 @@
   </x:si>
   <x:si>
     <x:t>Waleed hisham abdelhamid hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يسي رزق لمعي رزق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1170221</x:t>
@@ -377,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -928,7 +901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45922.5216257755</x:v>
+        <x:v>45914.9442097222</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -960,7 +933,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.9442097222</x:v>
+        <x:v>45909.415459294</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -992,7 +965,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.415459294</x:v>
+        <x:v>45907.4242160532</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1024,7 +997,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4242160532</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1056,7 +1029,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45907.4235224884</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1088,7 +1061,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4235224884</x:v>
+        <x:v>45921.5821270486</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1120,7 +1093,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.5821270486</x:v>
+        <x:v>45929.1893975694</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1148,11 +1121,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45929.1893975694</x:v>
+        <x:v>45928.7083603819</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1175,14 +1146,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45928.7083603819</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1214,7 +1187,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45907.4156276273</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1246,7 +1219,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4156276273</x:v>
+        <x:v>45909.4744706019</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1278,7 +1251,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4744706019</x:v>
+        <x:v>45927.4385079861</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1310,7 +1283,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4200439468</x:v>
+        <x:v>45921.5815980324</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1342,7 +1315,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4385079861</x:v>
+        <x:v>45922.5225679398</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,7 +1347,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.5815980324</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1406,7 +1379,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.5225679398</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1438,7 +1411,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.5785140856</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1470,7 +1443,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45928.3948722222</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1487,102 +1460,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45921.4826945255</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45918.4476885764</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45928.3948722222</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -163,15 +163,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد ساطع ابراهيم سعيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar muhammad satea ibrahim saeed</x:t>
   </x:si>
   <x:si>
     <x:t>1230082</x:t>
@@ -350,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1219,7 +1210,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4744706019</x:v>
+        <x:v>45927.4385079861</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4385079861</x:v>
+        <x:v>45921.5815980324</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.5815980324</x:v>
+        <x:v>45922.5225679398</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.5225679398</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.5785140856</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45928.3948722222</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1428,38 +1419,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45928.3948722222</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,15 +190,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Sameh Mohamed Abdelfattah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230280</x:t>
@@ -341,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1306,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.5785140856</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45928.3948722222</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1387,38 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45928.3948722222</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -163,15 +163,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كلارا هانى فوزى سوارس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clara Hany Fawzy Swares</x:t>
   </x:si>
   <x:si>
     <x:t>1220197</x:t>
@@ -332,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1201,7 +1192,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4385079861</x:v>
+        <x:v>45921.5815980324</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.5815980324</x:v>
+        <x:v>45922.5225679398</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.5225679398</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45928.3948722222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1346,38 +1337,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45928.3948722222</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Adham Adel Said Muhamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الحسين محمد محمود عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230020</x:t>
   </x:si>
   <x:si>
@@ -105,15 +96,6 @@
     <x:t>Darine Sherif Mohamad Sobhy Elfeel</x:t>
   </x:si>
   <x:si>
-    <x:t>1230033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روزانا احمد محمد ابراهيم المنجورى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rozana Ahmed Mohamed Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230035</x:t>
   </x:si>
   <x:si>
@@ -163,6 +145,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي طارق محمد حسين الحكيم محمد حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Tarek Mohamed Hussein Al Hakim Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1220197</x:t>
@@ -323,7 +314,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +614,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -778,7 +769,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4154279745</x:v>
+        <x:v>45907.4712239583</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -810,7 +801,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4712239583</x:v>
+        <x:v>45928.5241342593</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -842,7 +833,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.5241342593</x:v>
+        <x:v>45914.9442097222</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -874,7 +865,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.9442097222</x:v>
+        <x:v>45909.415459294</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -906,7 +897,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.415459294</x:v>
+        <x:v>45907.4242160532</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -938,7 +929,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4242160532</x:v>
+        <x:v>45907.4235224884</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -970,7 +961,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.416055787</x:v>
+        <x:v>45921.5821270486</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1002,7 +993,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4235224884</x:v>
+        <x:v>45929.1893975694</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1030,11 +1021,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45921.5821270486</x:v>
+        <x:v>45928.7083603819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1057,16 +1046,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45929.1893975694</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1089,14 +1078,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45928.7083603819</x:v>
+        <x:v>45907.4156276273</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45932.4108012384</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4156276273</x:v>
+        <x:v>45921.5815980324</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.5815980324</x:v>
+        <x:v>45922.5225679398</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.5225679398</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45928.3948722222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1305,38 +1296,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45928.3948722222</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -174,6 +174,15 @@
     <x:t>Marwan Sameh Mohamed Abdelfattah</x:t>
   </x:si>
   <x:si>
+    <x:t>1230259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد رامى محمود غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Mohamed Rami Mahmoud Ghaly</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230280</x:t>
   </x:si>
   <x:si>
@@ -190,15 +199,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hazem Abdelrouf Dekhel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف حامد محمود يوسف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamed Mahmoud Youssef</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1215,7 +1215,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4220834491</x:v>
+        <x:v>45934.3905704514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1247,7 +1247,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.4476885764</x:v>
+        <x:v>45907.4220834491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,7 +1279,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.3948722222</x:v>
+        <x:v>45918.4476885764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -162,7 +162,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1230252</x:t>

--- a/downloaded_files/GENS208_Lecture-35042.xlsx
+++ b/downloaded_files/GENS208_Lecture-35042.xlsx
@@ -135,7 +135,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1220126</x:t>
